--- a/data/dados_pubmatic.xlsx
+++ b/data/dados_pubmatic.xlsx
@@ -1267,10 +1267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75"/>
@@ -1306,22 +1306,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>11</v>
+        <v>-1.7</v>
       </c>
       <c r="C2" s="1">
         <v>74.3</v>
       </c>
-      <c r="D2" s="1">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
-        <v>51</v>
-      </c>
       <c r="F2" s="1">
         <v>-3.1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-7.1</v>
       </c>
       <c r="H2" s="1">
         <v>-5</v>
@@ -1338,16 +1329,16 @@
         <v>55.4</v>
       </c>
       <c r="D3" s="1">
-        <v>-4.1</v>
+        <v>-6.5</v>
       </c>
       <c r="E3" s="1">
-        <v>59.5</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1">
         <v>8.6</v>
       </c>
       <c r="G3" s="1">
-        <v>4.7</v>
+        <v>-7.1</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
@@ -1364,7 +1355,7 @@
         <v>63.3</v>
       </c>
       <c r="D4" s="1">
-        <v>-7.8</v>
+        <v>-4.1</v>
       </c>
       <c r="E4" s="1">
         <v>59.5</v>
@@ -1373,7 +1364,7 @@
         <v>5.9</v>
       </c>
       <c r="G4" s="1">
-        <v>-10.3</v>
+        <v>4.7</v>
       </c>
       <c r="H4" s="1">
         <v>-34</v>
@@ -1390,16 +1381,16 @@
         <v>63.7</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>-7.8</v>
       </c>
       <c r="E5" s="1">
-        <v>78</v>
+        <v>59.5</v>
       </c>
       <c r="F5" s="1">
         <v>7.1</v>
       </c>
       <c r="G5" s="1">
-        <v>5</v>
+        <v>-10.3</v>
       </c>
       <c r="H5" s="1">
         <v>24</v>
@@ -1416,16 +1407,16 @@
         <v>84.6</v>
       </c>
       <c r="D6" s="1">
-        <v>11.9</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1">
         <v>8.2</v>
       </c>
       <c r="G6" s="1">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
         <v>24</v>
@@ -1447,16 +1438,16 @@
         <v>66.7</v>
       </c>
       <c r="D7" s="1">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="E7" s="1">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1">
         <v>7.3</v>
       </c>
       <c r="G7" s="1">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H7" s="1">
         <v>-6</v>
@@ -1473,16 +1464,16 @@
         <v>67.3</v>
       </c>
       <c r="D8" s="1">
-        <v>3.6</v>
+        <v>10.6</v>
       </c>
       <c r="E8" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1">
         <v>-4.1</v>
       </c>
       <c r="G8" s="1">
-        <v>-4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H8" s="1">
         <v>-28</v>
@@ -1499,16 +1490,16 @@
         <v>71.8</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E9" s="1">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>8.7</v>
       </c>
       <c r="G9" s="1">
-        <v>-2.2</v>
+        <v>-4.1</v>
       </c>
       <c r="H9" s="1">
         <v>-1</v>
@@ -1525,16 +1516,16 @@
         <v>85.5</v>
       </c>
       <c r="D10" s="1">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F10" s="1">
         <v>-3.1</v>
       </c>
       <c r="G10" s="1">
-        <v>-6.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H10" s="1">
         <v>-24</v>
@@ -1556,16 +1547,16 @@
         <v>63.8</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="E11" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1">
         <v>2.9</v>
       </c>
       <c r="G11" s="1">
-        <v>1.1</v>
+        <v>-6.3</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1582,16 +1573,16 @@
         <v>71.1</v>
       </c>
       <c r="D12" s="1">
-        <v>-8.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>63.5</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
         <v>4.8</v>
       </c>
       <c r="G12" s="1">
-        <v>-10.1</v>
+        <v>1.1</v>
       </c>
       <c r="H12" s="1">
         <v>-21</v>
@@ -1608,20 +1599,25 @@
         <v>68</v>
       </c>
       <c r="D13" s="1">
-        <v>-12.3</v>
+        <v>-8.8</v>
       </c>
       <c r="E13" s="1">
-        <v>75</v>
+        <v>63.5</v>
       </c>
       <c r="F13" s="1">
         <v>6.3</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="H13" s="1">
         <v>43</v>
       </c>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/dados_pubmatic.xlsx
+++ b/data/dados_pubmatic.xlsx
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75"/>
@@ -1311,8 +1311,17 @@
       <c r="C2" s="1">
         <v>74.3</v>
       </c>
+      <c r="D2">
+        <v>1.2</v>
+      </c>
+      <c r="E2">
+        <v>76.5</v>
+      </c>
       <c r="F2" s="1">
         <v>-3.1</v>
+      </c>
+      <c r="G2">
+        <v>-19.3</v>
       </c>
       <c r="H2" s="1">
         <v>-5</v>
